--- a/Descargas/R15_2º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
+++ b/Descargas/R15_2º Juzgado De Familia De Santiago_Ingresos Causas Por Materia_2020-Octubre.xlsx
@@ -241,7 +241,7 @@
         </is>
       </c>
       <c r="B4" s="65">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5">
